--- a/HRDAQ_BOMs/HRDAQ_BOM.xlsx
+++ b/HRDAQ_BOMs/HRDAQ_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c82fca5d80673a5a/Desktop/HRDAQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c82fca5d80673a5a/Desktop/HRDAQ/HRDAQ_BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95727BB2-2050-4C5F-9D76-23D51BCB61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{95727BB2-2050-4C5F-9D76-23D51BCB61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4D5454B-DB65-4ADD-AB13-49DDE8E0A790}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28C573F7-5D6C-4C2F-9371-5A5936799510}"/>
   </bookViews>
@@ -1276,26 +1276,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9022511C-BA93-4822-9CD9-2CC7AADB2063}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3514,6 +3516,12 @@
         <v>0.83330000000000004</v>
       </c>
     </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f>SUM(G2:G53)</f>
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
